--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H2">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I2">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J2">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.408713108771495</v>
+        <v>1.940154666666666</v>
       </c>
       <c r="N2">
-        <v>0.408713108771495</v>
+        <v>5.820463999999999</v>
       </c>
       <c r="O2">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854888</v>
       </c>
       <c r="P2">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854887</v>
       </c>
       <c r="Q2">
-        <v>0.8636986752646681</v>
+        <v>5.773549120005333</v>
       </c>
       <c r="R2">
-        <v>0.8636986752646681</v>
+        <v>51.961942080048</v>
       </c>
       <c r="S2">
-        <v>2.254754262369354E-05</v>
+        <v>0.0001253232533381577</v>
       </c>
       <c r="T2">
-        <v>2.254754262369354E-05</v>
+        <v>0.0001253232533381577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H3">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I3">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J3">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.61582925447746</v>
+        <v>1.784324666666667</v>
       </c>
       <c r="N3">
-        <v>1.61582925447746</v>
+        <v>5.352974</v>
       </c>
       <c r="O3">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548077</v>
       </c>
       <c r="P3">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548075</v>
       </c>
       <c r="Q3">
-        <v>3.414594630304188</v>
+        <v>5.309827245235333</v>
       </c>
       <c r="R3">
-        <v>3.414594630304188</v>
+        <v>47.788445207118</v>
       </c>
       <c r="S3">
-        <v>8.914071559253704E-05</v>
+        <v>0.0001152574978068022</v>
       </c>
       <c r="T3">
-        <v>8.914071559253704E-05</v>
+        <v>0.0001152574978068022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H4">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I4">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J4">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.41371691583652</v>
+        <v>9.084400666666667</v>
       </c>
       <c r="N4">
-        <v>4.41371691583652</v>
+        <v>27.253202</v>
       </c>
       <c r="O4">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="P4">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="Q4">
-        <v>9.327132825907366</v>
+        <v>27.03353210747933</v>
       </c>
       <c r="R4">
-        <v>9.327132825907366</v>
+        <v>243.301788967314</v>
       </c>
       <c r="S4">
-        <v>0.00024349223979596</v>
+        <v>0.0005868020038474572</v>
       </c>
       <c r="T4">
-        <v>0.00024349223979596</v>
+        <v>0.0005868020038474572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H5">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I5">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J5">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.57371401927529</v>
+        <v>3.885660666666667</v>
       </c>
       <c r="N5">
-        <v>3.57371401927529</v>
+        <v>11.656982</v>
       </c>
       <c r="O5">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067495</v>
       </c>
       <c r="P5">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067494</v>
       </c>
       <c r="Q5">
-        <v>7.552026098454592</v>
+        <v>11.56302283941933</v>
       </c>
       <c r="R5">
-        <v>7.552026098454592</v>
+        <v>104.067205554774</v>
       </c>
       <c r="S5">
-        <v>0.000197151663220939</v>
+        <v>0.0002509921731917497</v>
       </c>
       <c r="T5">
-        <v>0.000197151663220939</v>
+        <v>0.0002509921731917497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H6">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I6">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J6">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.831186158760956</v>
+        <v>1.013948333333333</v>
       </c>
       <c r="N6">
-        <v>0.831186158760956</v>
+        <v>3.041845</v>
       </c>
       <c r="O6">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426842</v>
       </c>
       <c r="P6">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426841</v>
       </c>
       <c r="Q6">
-        <v>1.756475064815034</v>
+        <v>3.017326715351667</v>
       </c>
       <c r="R6">
-        <v>1.756475064815034</v>
+        <v>27.155940438165</v>
       </c>
       <c r="S6">
-        <v>4.5854182165135E-05</v>
+        <v>6.549545045728455E-05</v>
       </c>
       <c r="T6">
-        <v>4.5854182165135E-05</v>
+        <v>6.549545045728455E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H7">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I7">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J7">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.705934085245</v>
+        <v>29.348104</v>
       </c>
       <c r="N7">
-        <v>28.705934085245</v>
+        <v>88.04431199999999</v>
       </c>
       <c r="O7">
-        <v>0.725830392408209</v>
+        <v>0.6236767714993731</v>
       </c>
       <c r="P7">
-        <v>0.725830392408209</v>
+        <v>0.6236767714993731</v>
       </c>
       <c r="Q7">
-        <v>60.66181071653006</v>
+        <v>87.33464549717598</v>
       </c>
       <c r="R7">
-        <v>60.66181071653006</v>
+        <v>786.011809474584</v>
       </c>
       <c r="S7">
-        <v>0.001583624939962142</v>
+        <v>0.001895725086137427</v>
       </c>
       <c r="T7">
-        <v>0.001583624939962142</v>
+        <v>0.001895725086137428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H8">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I8">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J8">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.408713108771495</v>
+        <v>1.940154666666666</v>
       </c>
       <c r="N8">
-        <v>0.408713108771495</v>
+        <v>5.820463999999999</v>
       </c>
       <c r="O8">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854888</v>
       </c>
       <c r="P8">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854887</v>
       </c>
       <c r="Q8">
-        <v>390.6795494105726</v>
+        <v>1859.836439972946</v>
       </c>
       <c r="R8">
-        <v>390.6795494105726</v>
+        <v>16738.52795975651</v>
       </c>
       <c r="S8">
-        <v>0.01019900116188198</v>
+        <v>0.04037044606178937</v>
       </c>
       <c r="T8">
-        <v>0.01019900116188198</v>
+        <v>0.04037044606178936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H9">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I9">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J9">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.61582925447746</v>
+        <v>1.784324666666667</v>
       </c>
       <c r="N9">
-        <v>1.61582925447746</v>
+        <v>5.352974</v>
       </c>
       <c r="O9">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548077</v>
       </c>
       <c r="P9">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548075</v>
       </c>
       <c r="Q9">
-        <v>1544.534372682941</v>
+        <v>1710.457466522899</v>
       </c>
       <c r="R9">
-        <v>1544.534372682941</v>
+        <v>15394.11719870609</v>
       </c>
       <c r="S9">
-        <v>0.04032130139733815</v>
+        <v>0.03712795889419828</v>
       </c>
       <c r="T9">
-        <v>0.04032130139733815</v>
+        <v>0.03712795889419827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H10">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I10">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J10">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.41371691583652</v>
+        <v>9.084400666666667</v>
       </c>
       <c r="N10">
-        <v>4.41371691583652</v>
+        <v>27.253202</v>
       </c>
       <c r="O10">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="P10">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="Q10">
-        <v>4218.971446959118</v>
+        <v>8708.326034753169</v>
       </c>
       <c r="R10">
-        <v>4218.971446959118</v>
+        <v>78374.93431277853</v>
       </c>
       <c r="S10">
-        <v>0.1101396137944826</v>
+        <v>0.1890268407041175</v>
       </c>
       <c r="T10">
-        <v>0.1101396137944826</v>
+        <v>0.1890268407041174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H11">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I11">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J11">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.57371401927529</v>
+        <v>3.885660666666667</v>
       </c>
       <c r="N11">
-        <v>3.57371401927529</v>
+        <v>11.656982</v>
       </c>
       <c r="O11">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067495</v>
       </c>
       <c r="P11">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067494</v>
       </c>
       <c r="Q11">
-        <v>3416.031815004243</v>
+        <v>3724.802679598862</v>
       </c>
       <c r="R11">
-        <v>3416.031815004243</v>
+        <v>33523.22411638976</v>
       </c>
       <c r="S11">
-        <v>0.08917823444513071</v>
+        <v>0.08085224186151647</v>
       </c>
       <c r="T11">
-        <v>0.08917823444513071</v>
+        <v>0.08085224186151646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H12">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I12">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J12">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.831186158760956</v>
+        <v>1.013948333333333</v>
       </c>
       <c r="N12">
-        <v>0.831186158760956</v>
+        <v>3.041845</v>
       </c>
       <c r="O12">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426842</v>
       </c>
       <c r="P12">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426841</v>
       </c>
       <c r="Q12">
-        <v>794.5119131536954</v>
+        <v>971.9730550261122</v>
       </c>
       <c r="R12">
-        <v>794.5119131536954</v>
+        <v>8747.75749523501</v>
       </c>
       <c r="S12">
-        <v>0.02074136702985642</v>
+        <v>0.02109808419068028</v>
       </c>
       <c r="T12">
-        <v>0.02074136702985642</v>
+        <v>0.02109808419068027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H13">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I13">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J13">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.705934085245</v>
+        <v>29.348104</v>
       </c>
       <c r="N13">
-        <v>28.705934085245</v>
+        <v>88.04431199999999</v>
       </c>
       <c r="O13">
-        <v>0.725830392408209</v>
+        <v>0.6236767714993731</v>
       </c>
       <c r="P13">
-        <v>0.725830392408209</v>
+        <v>0.6236767714993731</v>
       </c>
       <c r="Q13">
-        <v>27439.3484161604</v>
+        <v>28133.15567108521</v>
       </c>
       <c r="R13">
-        <v>27439.3484161604</v>
+        <v>253198.4010397669</v>
       </c>
       <c r="S13">
-        <v>0.7163260703047459</v>
+        <v>0.6106709273768129</v>
       </c>
       <c r="T13">
-        <v>0.7163260703047459</v>
+        <v>0.6106709273768129</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H14">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I14">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J14">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.408713108771495</v>
+        <v>1.940154666666666</v>
       </c>
       <c r="N14">
-        <v>0.408713108771495</v>
+        <v>5.820463999999999</v>
       </c>
       <c r="O14">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854888</v>
       </c>
       <c r="P14">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854887</v>
       </c>
       <c r="Q14">
-        <v>0.2095560768383825</v>
+        <v>1.009421083100444</v>
       </c>
       <c r="R14">
-        <v>0.2095560768383825</v>
+        <v>9.084789747903999</v>
       </c>
       <c r="S14">
-        <v>5.470628484082748E-06</v>
+        <v>2.191094792697592E-05</v>
       </c>
       <c r="T14">
-        <v>5.470628484082748E-06</v>
+        <v>2.191094792697592E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H15">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I15">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J15">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.61582925447746</v>
+        <v>1.784324666666667</v>
       </c>
       <c r="N15">
-        <v>1.61582925447746</v>
+        <v>5.352974</v>
       </c>
       <c r="O15">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548077</v>
       </c>
       <c r="P15">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548075</v>
       </c>
       <c r="Q15">
-        <v>0.8284707099969592</v>
+        <v>0.9283460584737777</v>
       </c>
       <c r="R15">
-        <v>0.8284707099969592</v>
+        <v>8.355114526264</v>
       </c>
       <c r="S15">
-        <v>2.162788849990291E-05</v>
+        <v>2.015109698616056E-05</v>
       </c>
       <c r="T15">
-        <v>2.162788849990291E-05</v>
+        <v>2.015109698616055E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H16">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I16">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J16">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.41371691583652</v>
+        <v>9.084400666666667</v>
       </c>
       <c r="N16">
-        <v>4.41371691583652</v>
+        <v>27.253202</v>
       </c>
       <c r="O16">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="P16">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="Q16">
-        <v>2.263008406894566</v>
+        <v>4.726419866319111</v>
       </c>
       <c r="R16">
-        <v>2.263008406894566</v>
+        <v>42.537778796872</v>
       </c>
       <c r="S16">
-        <v>5.907763896545991E-05</v>
+        <v>0.0001025937949045568</v>
       </c>
       <c r="T16">
-        <v>5.907763896545991E-05</v>
+        <v>0.0001025937949045568</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H17">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I17">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J17">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.57371401927529</v>
+        <v>3.885660666666667</v>
       </c>
       <c r="N17">
-        <v>3.57371401927529</v>
+        <v>11.656982</v>
       </c>
       <c r="O17">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067495</v>
       </c>
       <c r="P17">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067494</v>
       </c>
       <c r="Q17">
-        <v>1.832320700142632</v>
+        <v>2.021626350772444</v>
       </c>
       <c r="R17">
-        <v>1.832320700142632</v>
+        <v>18.194637156952</v>
       </c>
       <c r="S17">
-        <v>4.783419295402046E-05</v>
+        <v>4.388233061620099E-05</v>
       </c>
       <c r="T17">
-        <v>4.783419295402046E-05</v>
+        <v>4.388233061620099E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H18">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I18">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J18">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.831186158760956</v>
+        <v>1.013948333333333</v>
       </c>
       <c r="N18">
-        <v>0.831186158760956</v>
+        <v>3.041845</v>
       </c>
       <c r="O18">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426842</v>
       </c>
       <c r="P18">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426841</v>
       </c>
       <c r="Q18">
-        <v>0.4261671740254659</v>
+        <v>0.5275356869355555</v>
       </c>
       <c r="R18">
-        <v>0.4261671740254659</v>
+        <v>4.74782118242</v>
       </c>
       <c r="S18">
-        <v>1.1125433899981E-05</v>
+        <v>1.145092683279754E-05</v>
       </c>
       <c r="T18">
-        <v>1.1125433899981E-05</v>
+        <v>1.145092683279753E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H19">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I19">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J19">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.705934085245</v>
+        <v>29.348104</v>
       </c>
       <c r="N19">
-        <v>28.705934085245</v>
+        <v>88.04431199999999</v>
       </c>
       <c r="O19">
-        <v>0.725830392408209</v>
+        <v>0.6236767714993731</v>
       </c>
       <c r="P19">
-        <v>0.725830392408209</v>
+        <v>0.6236767714993731</v>
       </c>
       <c r="Q19">
-        <v>14.71815510632011</v>
+        <v>15.26919241831467</v>
       </c>
       <c r="R19">
-        <v>14.71815510632011</v>
+        <v>137.422731764832</v>
       </c>
       <c r="S19">
-        <v>0.0003842291751810227</v>
+        <v>0.0003314399565908184</v>
       </c>
       <c r="T19">
-        <v>0.0003842291751810227</v>
+        <v>0.0003314399565908184</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H20">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I20">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J20">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.408713108771495</v>
+        <v>1.940154666666666</v>
       </c>
       <c r="N20">
-        <v>0.408713108771495</v>
+        <v>5.820463999999999</v>
       </c>
       <c r="O20">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854888</v>
       </c>
       <c r="P20">
-        <v>0.01033432304418466</v>
+        <v>0.04123024092854887</v>
       </c>
       <c r="Q20">
-        <v>4.110340304341349</v>
+        <v>2.778783287742221</v>
       </c>
       <c r="R20">
-        <v>4.110340304341349</v>
+        <v>25.00904958968</v>
       </c>
       <c r="S20">
-        <v>0.0001073037111949051</v>
+        <v>6.031751955394041E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001073037111949051</v>
+        <v>6.031751955394041E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H21">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I21">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J21">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.61582925447746</v>
+        <v>1.784324666666667</v>
       </c>
       <c r="N21">
-        <v>1.61582925447746</v>
+        <v>5.352974</v>
       </c>
       <c r="O21">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548077</v>
       </c>
       <c r="P21">
-        <v>0.04085629049238544</v>
+        <v>0.03791869646548075</v>
       </c>
       <c r="Q21">
-        <v>16.25004915936219</v>
+        <v>2.555596029958888</v>
       </c>
       <c r="R21">
-        <v>16.25004915936219</v>
+        <v>23.00036426963</v>
       </c>
       <c r="S21">
-        <v>0.0004242204909548539</v>
+        <v>5.547291657791109E-05</v>
       </c>
       <c r="T21">
-        <v>0.0004242204909548539</v>
+        <v>5.547291657791108E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H22">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I22">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J22">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.41371691583652</v>
+        <v>9.084400666666667</v>
       </c>
       <c r="N22">
-        <v>4.41371691583652</v>
+        <v>27.253202</v>
       </c>
       <c r="O22">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="P22">
-        <v>0.111600962765641</v>
+        <v>0.1930526646216539</v>
       </c>
       <c r="Q22">
-        <v>44.38780685465824</v>
+        <v>13.01111771416555</v>
       </c>
       <c r="R22">
-        <v>44.38780685465824</v>
+        <v>117.10005942749</v>
       </c>
       <c r="S22">
-        <v>0.001158779092397</v>
+        <v>0.0002824251716946429</v>
       </c>
       <c r="T22">
-        <v>0.001158779092397</v>
+        <v>0.0002824251716946429</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H23">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I23">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J23">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.57371401927529</v>
+        <v>3.885660666666667</v>
       </c>
       <c r="N23">
-        <v>3.57371401927529</v>
+        <v>11.656982</v>
       </c>
       <c r="O23">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067495</v>
       </c>
       <c r="P23">
-        <v>0.09036146468052349</v>
+        <v>0.08257420308067494</v>
       </c>
       <c r="Q23">
-        <v>35.94007741461855</v>
+        <v>5.565231013732221</v>
       </c>
       <c r="R23">
-        <v>35.94007741461855</v>
+        <v>50.08707912359</v>
       </c>
       <c r="S23">
-        <v>0.0009382443792178264</v>
+        <v>0.0001208014068508853</v>
       </c>
       <c r="T23">
-        <v>0.0009382443792178264</v>
+        <v>0.0001208014068508853</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H24">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I24">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J24">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.831186158760956</v>
+        <v>1.013948333333333</v>
       </c>
       <c r="N24">
-        <v>0.831186158760956</v>
+        <v>3.041845</v>
       </c>
       <c r="O24">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426842</v>
       </c>
       <c r="P24">
-        <v>0.02101656660905649</v>
+        <v>0.02154742340426841</v>
       </c>
       <c r="Q24">
-        <v>8.359061394030091</v>
+        <v>1.452225810502777</v>
       </c>
       <c r="R24">
-        <v>8.359061394030091</v>
+        <v>13.070032294525</v>
       </c>
       <c r="S24">
-        <v>0.0002182199631349542</v>
+        <v>3.152266645194539E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002182199631349542</v>
+        <v>3.152266645194539E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.432248333333333</v>
+      </c>
+      <c r="H25">
+        <v>4.296745</v>
+      </c>
+      <c r="I25">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="J25">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.348104</v>
+      </c>
+      <c r="N25">
+        <v>88.04431199999999</v>
+      </c>
+      <c r="O25">
+        <v>0.6236767714993731</v>
+      </c>
+      <c r="P25">
+        <v>0.6236767714993731</v>
+      </c>
+      <c r="Q25">
+        <v>42.03377304049332</v>
+      </c>
+      <c r="R25">
+        <v>378.30395736444</v>
+      </c>
+      <c r="S25">
+        <v>0.0009124039785613707</v>
+      </c>
+      <c r="T25">
+        <v>0.0009124039785613709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H26">
+        <v>2.293185</v>
+      </c>
+      <c r="I26">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J26">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.940154666666666</v>
+      </c>
+      <c r="N26">
+        <v>5.820463999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.04123024092854888</v>
+      </c>
+      <c r="P26">
+        <v>0.04123024092854887</v>
+      </c>
+      <c r="Q26">
+        <v>1.483044526426666</v>
+      </c>
+      <c r="R26">
+        <v>13.34740073784</v>
+      </c>
+      <c r="S26">
+        <v>3.219163135776101E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.219163135776101E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H27">
+        <v>2.293185</v>
+      </c>
+      <c r="I27">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J27">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.784324666666667</v>
+      </c>
+      <c r="N27">
+        <v>5.352974</v>
+      </c>
+      <c r="O27">
+        <v>0.03791869646548077</v>
+      </c>
+      <c r="P27">
+        <v>0.03791869646548075</v>
+      </c>
+      <c r="Q27">
+        <v>1.363928853576666</v>
+      </c>
+      <c r="R27">
+        <v>12.27535968219</v>
+      </c>
+      <c r="S27">
+        <v>2.960605300121768E-05</v>
+      </c>
+      <c r="T27">
+        <v>2.960605300121767E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H28">
+        <v>2.293185</v>
+      </c>
+      <c r="I28">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J28">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>9.084400666666667</v>
+      </c>
+      <c r="N28">
+        <v>27.253202</v>
+      </c>
+      <c r="O28">
+        <v>0.1930526646216539</v>
+      </c>
+      <c r="P28">
+        <v>0.1930526646216539</v>
+      </c>
+      <c r="Q28">
+        <v>6.944070447596666</v>
+      </c>
+      <c r="R28">
+        <v>62.49663402837</v>
+      </c>
+      <c r="S28">
+        <v>0.0001507311156125346</v>
+      </c>
+      <c r="T28">
+        <v>0.0001507311156125346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H29">
+        <v>2.293185</v>
+      </c>
+      <c r="I29">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J29">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3.885660666666667</v>
+      </c>
+      <c r="N29">
+        <v>11.656982</v>
+      </c>
+      <c r="O29">
+        <v>0.08257420308067495</v>
+      </c>
+      <c r="P29">
+        <v>0.08257420308067494</v>
+      </c>
+      <c r="Q29">
+        <v>2.970179585296667</v>
+      </c>
+      <c r="R29">
+        <v>26.73161626767</v>
+      </c>
+      <c r="S29">
+        <v>6.447205365208955E-05</v>
+      </c>
+      <c r="T29">
+        <v>6.447205365208955E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H30">
+        <v>2.293185</v>
+      </c>
+      <c r="I30">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J30">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.013948333333333</v>
+      </c>
+      <c r="N30">
+        <v>3.041845</v>
+      </c>
+      <c r="O30">
+        <v>0.02154742340426842</v>
+      </c>
+      <c r="P30">
+        <v>0.02154742340426841</v>
+      </c>
+      <c r="Q30">
+        <v>0.7750570362583332</v>
+      </c>
+      <c r="R30">
+        <v>6.975513326324999</v>
+      </c>
+      <c r="S30">
+        <v>1.682373654187167E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.682373654187167E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H31">
+        <v>2.293185</v>
+      </c>
+      <c r="I31">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J31">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>29.348104</v>
+      </c>
+      <c r="N31">
+        <v>88.04431199999999</v>
+      </c>
+      <c r="O31">
+        <v>0.6236767714993731</v>
+      </c>
+      <c r="P31">
+        <v>0.6236767714993731</v>
+      </c>
+      <c r="Q31">
+        <v>22.43354395707999</v>
+      </c>
+      <c r="R31">
+        <v>201.90189561372</v>
+      </c>
+      <c r="S31">
+        <v>0.0004869525926200547</v>
+      </c>
+      <c r="T31">
+        <v>0.0004869525926200548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>14.723214</v>
+      </c>
+      <c r="H32">
+        <v>44.169642</v>
+      </c>
+      <c r="I32">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J32">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.940154666666666</v>
+      </c>
+      <c r="N32">
+        <v>5.820463999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.04123024092854888</v>
+      </c>
+      <c r="P32">
+        <v>0.04123024092854887</v>
+      </c>
+      <c r="Q32">
+        <v>28.565312350432</v>
+      </c>
+      <c r="R32">
+        <v>257.087811153888</v>
+      </c>
+      <c r="S32">
+        <v>0.0006200515145826779</v>
+      </c>
+      <c r="T32">
+        <v>0.0006200515145826778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>14.723214</v>
+      </c>
+      <c r="H33">
+        <v>44.169642</v>
+      </c>
+      <c r="I33">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J33">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.784324666666667</v>
+      </c>
+      <c r="N33">
+        <v>5.352974</v>
+      </c>
+      <c r="O33">
+        <v>0.03791869646548077</v>
+      </c>
+      <c r="P33">
+        <v>0.03791869646548075</v>
+      </c>
+      <c r="Q33">
+        <v>26.270993912812</v>
+      </c>
+      <c r="R33">
+        <v>236.438945215308</v>
+      </c>
+      <c r="S33">
+        <v>0.0005702500069103935</v>
+      </c>
+      <c r="T33">
+        <v>0.0005702500069103933</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>14.723214</v>
+      </c>
+      <c r="H34">
+        <v>44.169642</v>
+      </c>
+      <c r="I34">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J34">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>9.084400666666667</v>
+      </c>
+      <c r="N34">
+        <v>27.253202</v>
+      </c>
+      <c r="O34">
+        <v>0.1930526646216539</v>
+      </c>
+      <c r="P34">
+        <v>0.1930526646216539</v>
+      </c>
+      <c r="Q34">
+        <v>133.751575077076</v>
+      </c>
+      <c r="R34">
+        <v>1203.764175693684</v>
+      </c>
+      <c r="S34">
+        <v>0.002903271831477296</v>
+      </c>
+      <c r="T34">
+        <v>0.002903271831477296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>10.0567860832655</v>
-      </c>
-      <c r="H25">
-        <v>10.0567860832655</v>
-      </c>
-      <c r="I25">
-        <v>0.01038323562521951</v>
-      </c>
-      <c r="J25">
-        <v>0.01038323562521951</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>28.705934085245</v>
-      </c>
-      <c r="N25">
-        <v>28.705934085245</v>
-      </c>
-      <c r="O25">
-        <v>0.725830392408209</v>
-      </c>
-      <c r="P25">
-        <v>0.725830392408209</v>
-      </c>
-      <c r="Q25">
-        <v>288.6894384156287</v>
-      </c>
-      <c r="R25">
-        <v>288.6894384156287</v>
-      </c>
-      <c r="S25">
-        <v>0.007536467988319975</v>
-      </c>
-      <c r="T25">
-        <v>0.007536467988319975</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>14.723214</v>
+      </c>
+      <c r="H35">
+        <v>44.169642</v>
+      </c>
+      <c r="I35">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J35">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.885660666666667</v>
+      </c>
+      <c r="N35">
+        <v>11.656982</v>
+      </c>
+      <c r="O35">
+        <v>0.08257420308067495</v>
+      </c>
+      <c r="P35">
+        <v>0.08257420308067494</v>
+      </c>
+      <c r="Q35">
+        <v>57.20941352671601</v>
+      </c>
+      <c r="R35">
+        <v>514.8847217404441</v>
+      </c>
+      <c r="S35">
+        <v>0.001241813254847554</v>
+      </c>
+      <c r="T35">
+        <v>0.001241813254847554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>14.723214</v>
+      </c>
+      <c r="H36">
+        <v>44.169642</v>
+      </c>
+      <c r="I36">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J36">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.013948333333333</v>
+      </c>
+      <c r="N36">
+        <v>3.041845</v>
+      </c>
+      <c r="O36">
+        <v>0.02154742340426842</v>
+      </c>
+      <c r="P36">
+        <v>0.02154742340426841</v>
+      </c>
+      <c r="Q36">
+        <v>14.92857829661</v>
+      </c>
+      <c r="R36">
+        <v>134.35720466949</v>
+      </c>
+      <c r="S36">
+        <v>0.0003240464333042427</v>
+      </c>
+      <c r="T36">
+        <v>0.0003240464333042427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14.723214</v>
+      </c>
+      <c r="H37">
+        <v>44.169642</v>
+      </c>
+      <c r="I37">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J37">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>29.348104</v>
+      </c>
+      <c r="N37">
+        <v>88.04431199999999</v>
+      </c>
+      <c r="O37">
+        <v>0.6236767714993731</v>
+      </c>
+      <c r="P37">
+        <v>0.6236767714993731</v>
+      </c>
+      <c r="Q37">
+        <v>432.098415686256</v>
+      </c>
+      <c r="R37">
+        <v>3888.885741176304</v>
+      </c>
+      <c r="S37">
+        <v>0.009379322508650485</v>
+      </c>
+      <c r="T37">
+        <v>0.009379322508650485</v>
       </c>
     </row>
   </sheetData>
